--- a/biology/Zoologie/Ada_de_Jelski/Ada_de_Jelski.xlsx
+++ b/biology/Zoologie/Ada_de_Jelski/Ada_de_Jelski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Knipolegus signatus
 L'Ada de Jelski (Knipolegus signatus) est une espèce de passereaux de la famille des Tyrannidae.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau vit dans le nord du Pérou. Les populations du Sud-Est du Pérou, de l'Ouest de la Bolivie et du Nord-Ouest de l'Argentine ont été élevées au rang d'espèce à part entière, l'Ada de Cabanis (K. cabanisi)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau vit dans le nord du Pérou. Les populations du Sud-Est du Pérou, de l'Ouest de la Bolivie et du Nord-Ouest de l'Argentine ont été élevées au rang d'espèce à part entière, l'Ada de Cabanis (K. cabanisi).
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel est les zones humides de montagne, tropicales ou subtropicales.
 </t>
@@ -574,7 +590,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite de l'étude phylogénique d'Hosner et Moyle (2012), le Congrès ornithologique international (classification version 4.1, 2014) divise cette espèce en deux. La sous-espèce Knipolegus signatus cabanisi est séparée et devient une espèce distincte, l'Ada de Cabanis (K. cabanisi).
 </t>
